--- a/Game_Engine/Shared/Resources/tables/blocks.xlsx
+++ b/Game_Engine/Shared/Resources/tables/blocks.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelgournay/Documents/GitHub/Physics-Engine/Physics_Engine/Shared/Resources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelgournay/Documents/GitHub/Physics-Engine/Game_Engine/Shared/Resources/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,91 +368,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
-      <c r="C2" t="b">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="b">
         <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Game_Engine/Shared/Resources/tables/blocks.xlsx
+++ b/Game_Engine/Shared/Resources/tables/blocks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -394,13 +394,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="b">
+      <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="b">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
@@ -408,13 +408,13 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="b">
+      <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="b">
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
@@ -422,13 +422,13 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="b">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
@@ -436,13 +436,13 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="b">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="b">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
@@ -450,13 +450,13 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="b">
+      <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="b">
+      <c r="D6">
         <v>0</v>
       </c>
     </row>

--- a/Game_Engine/Shared/Resources/tables/blocks.xlsx
+++ b/Game_Engine/Shared/Resources/tables/blocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -54,16 +54,49 @@
   </si>
   <si>
     <t>r1</t>
+  </si>
+  <si>
+    <t>Breakable</t>
+  </si>
+  <si>
+    <t>Moveable</t>
+  </si>
+  <si>
+    <t>r2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,13 +119,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -368,30 +410,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -403,9 +451,15 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -417,9 +471,15 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -431,9 +491,15 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -445,9 +511,15 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -458,6 +530,32 @@
       </c>
       <c r="D6">
         <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
